--- a/outputs-HGR-r202/test-p__Proteobacteria_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Proteobacteria_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>Row</t>
   </si>
@@ -91,15 +91,24 @@
     <t>even_MAG-GUT12481.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12482.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12789.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT12794.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12944.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12991.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13170.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13480.fa</t>
   </si>
   <si>
@@ -109,9 +118,15 @@
     <t>even_MAG-GUT13637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13816.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1384.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13881.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13955.fa</t>
   </si>
   <si>
@@ -130,12 +145,30 @@
     <t>even_MAG-GUT14250.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14532.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT14572.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT14827.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT14915.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT15246.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15625.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16149.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16156.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT16625.fa</t>
   </si>
   <si>
@@ -145,6 +178,9 @@
     <t>even_MAG-GUT16984.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17271.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17598.fa</t>
   </si>
   <si>
@@ -154,24 +190,45 @@
     <t>even_MAG-GUT18024.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT18195.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18312.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18361.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT1861.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18974.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT19089.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19408.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19561.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19592.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19599.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT19853.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2060.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2110.fa</t>
   </si>
   <si>
@@ -199,6 +256,9 @@
     <t>even_MAG-GUT24606.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24616.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT24657.fa</t>
   </si>
   <si>
@@ -220,6 +280,12 @@
     <t>even_MAG-GUT25055.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT25075.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25223.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25263.fa</t>
   </si>
   <si>
@@ -304,6 +370,9 @@
     <t>even_MAG-GUT29963.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT30085.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT31276.fa</t>
   </si>
   <si>
@@ -313,6 +382,9 @@
     <t>even_MAG-GUT31702.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT31872.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32354.fa</t>
   </si>
   <si>
@@ -349,6 +421,9 @@
     <t>even_MAG-GUT36009.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT36148.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT36218.fa</t>
   </si>
   <si>
@@ -373,18 +448,30 @@
     <t>even_MAG-GUT37961.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT38016.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT38856.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT38999.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39108.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39136.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT39174.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT3922.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT39245.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39460.fa</t>
   </si>
   <si>
@@ -430,12 +517,18 @@
     <t>even_MAG-GUT43227.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43254.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43269.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT4338.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43440.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43691.fa</t>
   </si>
   <si>
@@ -484,6 +577,9 @@
     <t>even_MAG-GUT48302.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT48773.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48926.fa</t>
   </si>
   <si>
@@ -496,6 +592,9 @@
     <t>even_MAG-GUT49445.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT49487.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT49542.fa</t>
   </si>
   <si>
@@ -562,15 +661,27 @@
     <t>even_MAG-GUT57416.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57726.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT58179.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT58214.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT60374.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61409.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61735.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61794.fa</t>
   </si>
   <si>
@@ -670,6 +781,9 @@
     <t>even_MAG-GUT69640.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT69662.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT69665.fa</t>
   </si>
   <si>
@@ -808,21 +922,39 @@
     <t>even_MAG-GUT79180.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80384.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80449.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80685.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80720.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80804.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81029.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81145.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT81204.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81432.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT8151.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81523.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT82115.fa</t>
   </si>
   <si>
@@ -899,6 +1031,12 @@
   </si>
   <si>
     <t>even_MAG-GUT90995.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91702.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91898.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT9364.fa</t>
@@ -967,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D345"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -981,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
@@ -1331,13 +1469,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.99864843622396371</v>
+        <v>0.00027206973909810195</v>
       </c>
       <c r="C26">
-        <v>0.001351563776036342</v>
+        <v>0.9997279302609019</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1345,13 +1483,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8.8471223936292809e-05</v>
+        <v>0.99864843622396371</v>
       </c>
       <c r="C27">
-        <v>0.99991152877606371</v>
+        <v>0.001351563776036342</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1359,10 +1497,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.0045398628529511598</v>
+        <v>8.8471223936292809e-05</v>
       </c>
       <c r="C28">
-        <v>0.99546013714704884</v>
+        <v>0.99991152877606371</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1373,10 +1511,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4.5916938971490844e-05</v>
+        <v>2.4518160255615484e-05</v>
       </c>
       <c r="C29">
-        <v>0.99995408306102851</v>
+        <v>0.99997548183974438</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1387,13 +1525,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.99999026582834094</v>
+        <v>0.0045398628529511598</v>
       </c>
       <c r="C30">
-        <v>9.734171659054757e-06</v>
+        <v>0.99546013714704884</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1401,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.0095641458924313749</v>
+        <v>0.016620420412731263</v>
       </c>
       <c r="C31">
-        <v>0.99043585410756863</v>
+        <v>0.98337957958726874</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1415,10 +1553,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.00015016544142687493</v>
+        <v>4.5916938971490844e-05</v>
       </c>
       <c r="C32">
-        <v>0.99984983455857313</v>
+        <v>0.99995408306102851</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1429,13 +1567,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4.6145088049565075e-06</v>
+        <v>0.99999026582834094</v>
       </c>
       <c r="C33">
-        <v>0.99999538549119504</v>
+        <v>9.734171659054757e-06</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1443,10 +1581,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.0044191365750549938</v>
+        <v>0.0095641458924313749</v>
       </c>
       <c r="C34">
-        <v>0.99558086342494501</v>
+        <v>0.99043585410756863</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1457,13 +1595,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.9999962801300939</v>
+        <v>0.00023994499542401293</v>
       </c>
       <c r="C35">
-        <v>3.7198699061037853e-06</v>
+        <v>0.99976005500457599</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1471,10 +1609,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.0095641458924313749</v>
+        <v>0.00015016544142687493</v>
       </c>
       <c r="C36">
-        <v>0.99043585410756863</v>
+        <v>0.99984983455857313</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1485,10 +1623,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.4678802359456856e-05</v>
+        <v>0.011787662749783823</v>
       </c>
       <c r="C37">
-        <v>0.99997532119764054</v>
+        <v>0.98821233725021618</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1499,10 +1637,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.0012619534762484674</v>
+        <v>4.6145088049565075e-06</v>
       </c>
       <c r="C38">
-        <v>0.99873804652375153</v>
+        <v>0.99999538549119504</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1513,10 +1651,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.2865671714944469e-06</v>
+        <v>0.0044191365750549938</v>
       </c>
       <c r="C39">
-        <v>0.99999771343282851</v>
+        <v>0.99558086342494501</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1527,10 +1665,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.99999086274597182</v>
+        <v>0.9999962801300939</v>
       </c>
       <c r="C40">
-        <v>9.1372540281767701e-06</v>
+        <v>3.7198699061037853e-06</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1541,10 +1679,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.00017485002357608972</v>
+        <v>0.0095641458924313749</v>
       </c>
       <c r="C41">
-        <v>0.99982514997642391</v>
+        <v>0.99043585410756863</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1555,10 +1693,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3.2352174060279459e-05</v>
+        <v>2.4678802359456856e-05</v>
       </c>
       <c r="C42">
-        <v>0.99996764782593972</v>
+        <v>0.99997532119764054</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1569,10 +1707,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>8.8354930283252031e-06</v>
+        <v>0.0012619534762484674</v>
       </c>
       <c r="C43">
-        <v>0.99999116450697167</v>
+        <v>0.99873804652375153</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1583,10 +1721,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.4263004317616179e-06</v>
+        <v>0.0054483604125262763</v>
       </c>
       <c r="C44">
-        <v>0.99999857369956824</v>
+        <v>0.99455163958747372</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1597,10 +1735,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.0027205467421833607</v>
+        <v>0.0004231443454686401</v>
       </c>
       <c r="C45">
-        <v>0.99727945325781664</v>
+        <v>0.99957685565453136</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1611,10 +1749,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2.7867439555961933e-06</v>
+        <v>2.2865671714944469e-06</v>
       </c>
       <c r="C46">
-        <v>0.9999972132560444</v>
+        <v>0.99999771343282851</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1625,13 +1763,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.0038123344714681151</v>
+        <v>0.99999086274597182</v>
       </c>
       <c r="C47">
-        <v>0.99618766552853188</v>
+        <v>9.1372540281767701e-06</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1639,10 +1777,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.0047878109289014592</v>
+        <v>0.0028197958065679929</v>
       </c>
       <c r="C48">
-        <v>0.99521218907109854</v>
+        <v>0.99718020419343201</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1653,13 +1791,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.99945396940792008</v>
+        <v>0.00034715700396259486</v>
       </c>
       <c r="C49">
-        <v>0.00054603059207995568</v>
+        <v>0.99965284299603741</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1667,10 +1805,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3.443107727263417e-06</v>
+        <v>0.00023942474340421516</v>
       </c>
       <c r="C50">
-        <v>0.99999655689227274</v>
+        <v>0.99976057525659578</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1681,10 +1819,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2.3417401692205075e-06</v>
+        <v>0.0064930914892286085</v>
       </c>
       <c r="C51">
-        <v>0.99999765825983078</v>
+        <v>0.99350690851077139</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1695,10 +1833,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.00010084026452894523</v>
+        <v>0.00017485002357608972</v>
       </c>
       <c r="C52">
-        <v>0.99989915973547105</v>
+        <v>0.99982514997642391</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1709,10 +1847,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.00028911776745521589</v>
+        <v>3.2352174060279459e-05</v>
       </c>
       <c r="C53">
-        <v>0.99971088223254478</v>
+        <v>0.99996764782593972</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1723,10 +1861,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>9.9632020555961986e-07</v>
+        <v>8.8354930283252031e-06</v>
       </c>
       <c r="C54">
-        <v>0.99999900367979444</v>
+        <v>0.99999116450697167</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1737,10 +1875,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7.6638935257999918e-06</v>
+        <v>0.017931337587263063</v>
       </c>
       <c r="C55">
-        <v>0.9999923361064742</v>
+        <v>0.98206866241273694</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1751,10 +1889,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>9.9021371332330688e-05</v>
+        <v>1.4263004317616179e-06</v>
       </c>
       <c r="C56">
-        <v>0.99990097862866767</v>
+        <v>0.99999857369956824</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1765,13 +1903,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.99982051795672366</v>
+        <v>0.0027205467421833607</v>
       </c>
       <c r="C57">
-        <v>0.0001794820432763179</v>
+        <v>0.99727945325781664</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1779,13 +1917,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.84358874991532273</v>
+        <v>2.7867439555961933e-06</v>
       </c>
       <c r="C58">
-        <v>0.15641125008467727</v>
+        <v>0.9999972132560444</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1793,13 +1931,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.99905089936241376</v>
+        <v>0.00052860177946090214</v>
       </c>
       <c r="C59">
-        <v>0.00094910063758624967</v>
+        <v>0.9994713982205391</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1807,10 +1945,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.00012204298443629913</v>
+        <v>0.00022353747753711684</v>
       </c>
       <c r="C60">
-        <v>0.9998779570155637</v>
+        <v>0.99977646252246288</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1821,10 +1959,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7.9274424774955499e-05</v>
+        <v>0.0044024830400941628</v>
       </c>
       <c r="C61">
-        <v>0.99992072557522504</v>
+        <v>0.99559751695990584</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1835,10 +1973,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.1557802397921257e-05</v>
+        <v>0.0038123344714681151</v>
       </c>
       <c r="C62">
-        <v>0.99998844219760208</v>
+        <v>0.99618766552853188</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1849,10 +1987,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.00042400296815836574</v>
+        <v>4.2593845922533902e-06</v>
       </c>
       <c r="C63">
-        <v>0.99957599703184163</v>
+        <v>0.99999574061540775</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1863,10 +2001,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.6794666328489036e-05</v>
+        <v>0.0047878109289014592</v>
       </c>
       <c r="C64">
-        <v>0.99997320533367151</v>
+        <v>0.99521218907109854</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1877,13 +2015,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4.2715658047032257e-05</v>
+        <v>0.99945396940792008</v>
       </c>
       <c r="C65">
-        <v>0.99995728434195297</v>
+        <v>0.00054603059207995568</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +2029,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.00010690931776569101</v>
+        <v>0.017467794166782458</v>
       </c>
       <c r="C66">
-        <v>0.99989309068223431</v>
+        <v>0.98253220583321765</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1905,10 +2043,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3.5005454303016492e-06</v>
+        <v>3.443107727263417e-06</v>
       </c>
       <c r="C67">
-        <v>0.9999964994545697</v>
+        <v>0.99999655689227274</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -1919,10 +2057,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.000195177927051704</v>
+        <v>0.011017762511482787</v>
       </c>
       <c r="C68">
-        <v>0.9998048220729483</v>
+        <v>0.98898223748851721</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -1933,10 +2071,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.012508350489685682</v>
+        <v>2.3417401692205075e-06</v>
       </c>
       <c r="C69">
-        <v>0.98749164951031432</v>
+        <v>0.99999765825983078</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -1947,10 +2085,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>9.6912164542550805e-05</v>
+        <v>0.00010084026452894523</v>
       </c>
       <c r="C70">
-        <v>0.99990308783545745</v>
+        <v>0.99989915973547105</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -1961,13 +2099,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.99999221630137736</v>
+        <v>1.4925677043198249e-06</v>
       </c>
       <c r="C71">
-        <v>7.7836986226786623e-06</v>
+        <v>0.99999850743229568</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -1975,10 +2113,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>9.0444577538484339e-07</v>
+        <v>0.00028911776745521589</v>
       </c>
       <c r="C72">
-        <v>0.99999909555422462</v>
+        <v>0.99971088223254478</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -1989,10 +2127,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.00013191590003747145</v>
+        <v>9.9632020555961986e-07</v>
       </c>
       <c r="C73">
-        <v>0.99986808409996253</v>
+        <v>0.99999900367979444</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2003,13 +2141,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.99993884392555277</v>
+        <v>7.6638935257999918e-06</v>
       </c>
       <c r="C74">
-        <v>6.1156074447284297e-05</v>
+        <v>0.9999923361064742</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2017,13 +2155,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.99998827022120917</v>
+        <v>9.9021371332330688e-05</v>
       </c>
       <c r="C75">
-        <v>1.1729778790775554e-05</v>
+        <v>0.99990097862866767</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2031,10 +2169,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.99991521779388615</v>
+        <v>0.99982051795672366</v>
       </c>
       <c r="C76">
-        <v>8.4782206113895824e-05</v>
+        <v>0.0001794820432763179</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2045,10 +2183,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.99988859842528899</v>
+        <v>0.84358874991532273</v>
       </c>
       <c r="C77">
-        <v>0.00011140157471097376</v>
+        <v>0.15641125008467727</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2059,10 +2197,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.99987447269087948</v>
+        <v>0.99905089936241376</v>
       </c>
       <c r="C78">
-        <v>0.00012552730912050451</v>
+        <v>0.00094910063758624967</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2073,13 +2211,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.99998713170099618</v>
+        <v>0.00012204298443629913</v>
       </c>
       <c r="C79">
-        <v>1.2868299003851393e-05</v>
+        <v>0.9998779570155637</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2087,13 +2225,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.99970886977560758</v>
+        <v>7.9274424774955499e-05</v>
       </c>
       <c r="C80">
-        <v>0.00029113022439237953</v>
+        <v>0.99992072557522504</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2101,13 +2239,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.99981115177224</v>
+        <v>0.00026439228812114024</v>
       </c>
       <c r="C81">
-        <v>0.00018884822775997362</v>
+        <v>0.99973560771187886</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2115,13 +2253,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.99966711333274283</v>
+        <v>1.1557802397921257e-05</v>
       </c>
       <c r="C82">
-        <v>0.00033288666725718636</v>
+        <v>0.99998844219760208</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2129,13 +2267,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.99989344787789969</v>
+        <v>0.00042400296815836574</v>
       </c>
       <c r="C83">
-        <v>0.00010655212210029664</v>
+        <v>0.99957599703184163</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2143,13 +2281,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.99896625714480614</v>
+        <v>2.6794666328489036e-05</v>
       </c>
       <c r="C84">
-        <v>0.001033742855193827</v>
+        <v>0.99997320533367151</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2157,13 +2295,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.99732247831030607</v>
+        <v>4.2715658047032257e-05</v>
       </c>
       <c r="C85">
-        <v>0.0026775216896938753</v>
+        <v>0.99995728434195297</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2171,13 +2309,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.99999603699696726</v>
+        <v>0.00010690931776569101</v>
       </c>
       <c r="C86">
-        <v>3.9630030327712057e-06</v>
+        <v>0.99989309068223431</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2185,13 +2323,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.99969026695414842</v>
+        <v>3.5005454303016492e-06</v>
       </c>
       <c r="C87">
-        <v>0.00030973304585153407</v>
+        <v>0.9999964994545697</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2199,13 +2337,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.99997212358853238</v>
+        <v>0.000195177927051704</v>
       </c>
       <c r="C88">
-        <v>2.787641146762652e-05</v>
+        <v>0.9998048220729483</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2213,13 +2351,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.99994835646554936</v>
+        <v>0.0010751772466099929</v>
       </c>
       <c r="C89">
-        <v>5.164353445067107e-05</v>
+        <v>0.99892482275339001</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2227,13 +2365,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.99883768420220231</v>
+        <v>0.010589884156486762</v>
       </c>
       <c r="C90">
-        <v>0.0011623157977976349</v>
+        <v>0.98941011584351324</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2241,13 +2379,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.99993536218642076</v>
+        <v>0.012508350489685682</v>
       </c>
       <c r="C91">
-        <v>6.4637813579185641e-05</v>
+        <v>0.98749164951031432</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2255,13 +2393,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.99904460394260397</v>
+        <v>9.6912164542550805e-05</v>
       </c>
       <c r="C92">
-        <v>0.00095539605739598864</v>
+        <v>0.99990308783545745</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2269,10 +2407,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.99991006594012344</v>
+        <v>0.99999221630137736</v>
       </c>
       <c r="C93">
-        <v>8.9934059876547591e-05</v>
+        <v>7.7836986226786623e-06</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2283,10 +2421,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7.4953981327174901e-06</v>
+        <v>9.0444577538484339e-07</v>
       </c>
       <c r="C94">
-        <v>0.99999250460186728</v>
+        <v>0.99999909555422462</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -2297,13 +2435,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.99981239235047847</v>
+        <v>0.00013191590003747145</v>
       </c>
       <c r="C95">
-        <v>0.00018760764952150785</v>
+        <v>0.99986808409996253</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2311,13 +2449,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2.196730072290265e-07</v>
+        <v>0.99993884392555277</v>
       </c>
       <c r="C96">
-        <v>0.99999978032699277</v>
+        <v>6.1156074447284297e-05</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2325,10 +2463,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.99986442228136829</v>
+        <v>0.99998827022120917</v>
       </c>
       <c r="C97">
-        <v>0.00013557771863167937</v>
+        <v>1.1729778790775554e-05</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2339,13 +2477,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.0051492468234224376</v>
+        <v>0.99991521779388615</v>
       </c>
       <c r="C98">
-        <v>0.99485075317657756</v>
+        <v>8.4782206113895824e-05</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2353,10 +2491,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.9999918550691379</v>
+        <v>0.99988859842528899</v>
       </c>
       <c r="C99">
-        <v>8.1449308620510474e-06</v>
+        <v>0.00011140157471097376</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2367,13 +2505,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4.4973777295065354e-05</v>
+        <v>0.99987447269087948</v>
       </c>
       <c r="C100">
-        <v>0.99995502622270493</v>
+        <v>0.00012552730912050451</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2381,13 +2519,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.0047719795481085958</v>
+        <v>0.99998713170099618</v>
       </c>
       <c r="C101">
-        <v>0.9952280204518914</v>
+        <v>1.2868299003851393e-05</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2395,10 +2533,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.99674199076430414</v>
+        <v>0.99970886977560758</v>
       </c>
       <c r="C102">
-        <v>0.0032580092356958791</v>
+        <v>0.00029113022439237953</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2409,13 +2547,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.3102187939040277e-06</v>
+        <v>0.99981115177224</v>
       </c>
       <c r="C103">
-        <v>0.9999986897812061</v>
+        <v>0.00018884822775997362</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2423,13 +2561,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.089876184441839091</v>
+        <v>0.99966711333274283</v>
       </c>
       <c r="C104">
-        <v>0.91012381555816091</v>
+        <v>0.00033288666725718636</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2437,13 +2575,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.11627490283674136</v>
+        <v>0.99989344787789969</v>
       </c>
       <c r="C105">
-        <v>0.88372509716325864</v>
+        <v>0.00010655212210029664</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2451,10 +2589,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.63894555829257027</v>
+        <v>0.99896625714480614</v>
       </c>
       <c r="C106">
-        <v>0.36105444170742973</v>
+        <v>0.001033742855193827</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2465,13 +2603,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.00060066669930036731</v>
+        <v>0.99732247831030607</v>
       </c>
       <c r="C107">
-        <v>0.99939933330069963</v>
+        <v>0.0026775216896938753</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2617,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.35169176142879532</v>
+        <v>0.99999603699696726</v>
       </c>
       <c r="C108">
-        <v>0.64830823857120468</v>
+        <v>3.9630030327712057e-06</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2493,13 +2631,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>6.6511877354624716e-06</v>
+        <v>0.99969026695414842</v>
       </c>
       <c r="C109">
-        <v>0.99999334881226454</v>
+        <v>0.00030973304585153407</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2507,13 +2645,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.4637316090304606e-06</v>
+        <v>0.99997212358853238</v>
       </c>
       <c r="C110">
-        <v>0.99999853626839097</v>
+        <v>2.787641146762652e-05</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2521,13 +2659,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.00041387838475814842</v>
+        <v>0.99994835646554936</v>
       </c>
       <c r="C111">
-        <v>0.99958612161524185</v>
+        <v>5.164353445067107e-05</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2535,13 +2673,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5.2880790105680475e-06</v>
+        <v>0.99883768420220231</v>
       </c>
       <c r="C112">
-        <v>0.99999471192098943</v>
+        <v>0.0011623157977976349</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2549,13 +2687,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>3.8951063408343423e-05</v>
+        <v>0.99993536218642076</v>
       </c>
       <c r="C113">
-        <v>0.99996104893659166</v>
+        <v>6.4637813579185641e-05</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2563,10 +2701,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.99999852821712565</v>
+        <v>0.99904460394260397</v>
       </c>
       <c r="C114">
-        <v>1.4717828743677294e-06</v>
+        <v>0.00095539605739598864</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -2577,13 +2715,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7.5622925999052626e-07</v>
+        <v>0.99991006594012344</v>
       </c>
       <c r="C115">
-        <v>0.99999924377074001</v>
+        <v>8.9934059876547591e-05</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2591,13 +2729,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.99851929496123726</v>
+        <v>7.4953981327174901e-06</v>
       </c>
       <c r="C116">
-        <v>0.0014807050387627288</v>
+        <v>0.99999250460186728</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2605,10 +2743,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.99999388586214877</v>
+        <v>0.99981239235047847</v>
       </c>
       <c r="C117">
-        <v>6.1141378512422233e-06</v>
+        <v>0.00018760764952150785</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2619,10 +2757,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>4.1690679279726695e-05</v>
+        <v>2.196730072290265e-07</v>
       </c>
       <c r="C118">
-        <v>0.99995830932072027</v>
+        <v>0.99999978032699277</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -2633,10 +2771,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3.1526353649891092e-07</v>
+        <v>0.00043175572903797477</v>
       </c>
       <c r="C119">
-        <v>0.9999996847364635</v>
+        <v>0.99956824427096203</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -2647,13 +2785,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>3.9749395737143089e-06</v>
+        <v>0.99986442228136829</v>
       </c>
       <c r="C120">
-        <v>0.99999602506042629</v>
+        <v>0.00013557771863167937</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2661,10 +2799,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.0072650789291285323</v>
+        <v>0.0051492468234224376</v>
       </c>
       <c r="C121">
-        <v>0.99273492107087147</v>
+        <v>0.99485075317657756</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -2675,13 +2813,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.8138248193698701e-06</v>
+        <v>0.9999918550691379</v>
       </c>
       <c r="C122">
-        <v>0.99999718617518063</v>
+        <v>8.1449308620510474e-06</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2689,10 +2827,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2.8152742802545205e-06</v>
+        <v>0.0089618971095987154</v>
       </c>
       <c r="C123">
-        <v>0.99999718472571975</v>
+        <v>0.99103810289040128</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -2703,10 +2841,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.0001624439577657677</v>
+        <v>4.4973777295065354e-05</v>
       </c>
       <c r="C124">
-        <v>0.99983755604223423</v>
+        <v>0.99995502622270493</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -2717,13 +2855,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.99997101663163113</v>
+        <v>0.0047719795481085958</v>
       </c>
       <c r="C125">
-        <v>2.8983368368876022e-05</v>
+        <v>0.9952280204518914</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -2731,13 +2869,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>6.7810306891402661e-05</v>
+        <v>0.99674199076430414</v>
       </c>
       <c r="C126">
-        <v>0.9999321896931086</v>
+        <v>0.0032580092356958791</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2745,13 +2883,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.9991648217141762</v>
+        <v>1.3102187939040277e-06</v>
       </c>
       <c r="C127">
-        <v>0.00083517828582378164</v>
+        <v>0.9999986897812061</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2759,13 +2897,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.99981144456424309</v>
+        <v>0.089876184441839091</v>
       </c>
       <c r="C128">
-        <v>0.00018855543575689273</v>
+        <v>0.91012381555816091</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2773,13 +2911,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.64329932372712562</v>
+        <v>0.11627490283674136</v>
       </c>
       <c r="C129">
-        <v>0.35670067627287438</v>
+        <v>0.88372509716325864</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2787,10 +2925,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.9996738682547015</v>
+        <v>0.63894555829257027</v>
       </c>
       <c r="C130">
-        <v>0.00032613174529844591</v>
+        <v>0.36105444170742973</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2801,13 +2939,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.99960692005746277</v>
+        <v>0.00060066669930036731</v>
       </c>
       <c r="C131">
-        <v>0.00039307994253722205</v>
+        <v>0.99939933330069963</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2815,13 +2953,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.99986152892886604</v>
+        <v>0.35169176142879532</v>
       </c>
       <c r="C132">
-        <v>0.00013847107113399107</v>
+        <v>0.64830823857120468</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -2829,13 +2967,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.99867638629680733</v>
+        <v>6.6511877354624716e-06</v>
       </c>
       <c r="C133">
-        <v>0.0013236137031927104</v>
+        <v>0.99999334881226454</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -2843,13 +2981,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.99980430710312418</v>
+        <v>1.4637316090304606e-06</v>
       </c>
       <c r="C134">
-        <v>0.00019569289687586854</v>
+        <v>0.99999853626839097</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2857,13 +2995,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.99899834008035493</v>
+        <v>0.00041387838475814842</v>
       </c>
       <c r="C135">
-        <v>0.0010016599196450919</v>
+        <v>0.99958612161524185</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -2871,10 +3009,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7.7574296113325225e-05</v>
+        <v>0.0056013304175329681</v>
       </c>
       <c r="C136">
-        <v>0.99992242570388667</v>
+        <v>0.99439866958246703</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -2885,10 +3023,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.00013469116299269501</v>
+        <v>5.2880790105680475e-06</v>
       </c>
       <c r="C137">
-        <v>0.9998653088370073</v>
+        <v>0.99999471192098943</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -2899,10 +3037,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1.1330570710565979e-06</v>
+        <v>3.8951063408343423e-05</v>
       </c>
       <c r="C138">
-        <v>0.99999886694292894</v>
+        <v>0.99996104893659166</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -2913,10 +3051,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.99989676046842002</v>
+        <v>0.99999852821712565</v>
       </c>
       <c r="C139">
-        <v>0.00010323953157992731</v>
+        <v>1.4717828743677294e-06</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2927,10 +3065,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>3.8816735365987398e-06</v>
+        <v>7.5622925999052626e-07</v>
       </c>
       <c r="C140">
-        <v>0.9999961183264634</v>
+        <v>0.99999924377074001</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -2941,10 +3079,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.99986218781012226</v>
+        <v>0.99851929496123726</v>
       </c>
       <c r="C141">
-        <v>0.00013781218987777769</v>
+        <v>0.0014807050387627288</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2955,13 +3093,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.00010103199552957687</v>
+        <v>0.99999388586214877</v>
       </c>
       <c r="C142">
-        <v>0.99989896800447042</v>
+        <v>6.1141378512422233e-06</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -2969,13 +3107,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.99995649950081189</v>
+        <v>4.1690679279726695e-05</v>
       </c>
       <c r="C143">
-        <v>4.350049918816481e-05</v>
+        <v>0.99995830932072027</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -2983,10 +3121,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.0001293129785886471</v>
+        <v>3.1526353649891092e-07</v>
       </c>
       <c r="C144">
-        <v>0.99987068702141135</v>
+        <v>0.9999996847364635</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -2997,10 +3135,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.017882883615449985</v>
+        <v>0.00082665494570988152</v>
       </c>
       <c r="C145">
-        <v>0.98211711638455002</v>
+        <v>0.99917334505429012</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -3011,13 +3149,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.99832160531060865</v>
+        <v>3.9749395737143089e-06</v>
       </c>
       <c r="C146">
-        <v>0.0016783946893913992</v>
+        <v>0.99999602506042629</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3025,13 +3163,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.9997515851801293</v>
+        <v>0.0072650789291285323</v>
       </c>
       <c r="C147">
-        <v>0.00024841481987066124</v>
+        <v>0.99273492107087147</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3039,13 +3177,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.99956746753921955</v>
+        <v>6.2161045903952328e-05</v>
       </c>
       <c r="C148">
-        <v>0.00043253246078042961</v>
+        <v>0.99993783895409605</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3053,13 +3191,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.99993486450887048</v>
+        <v>2.8138248193698701e-06</v>
       </c>
       <c r="C149">
-        <v>6.5135491129468466e-05</v>
+        <v>0.99999718617518063</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3067,13 +3205,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.99985150152060231</v>
+        <v>2.8152742802545205e-06</v>
       </c>
       <c r="C150">
-        <v>0.00014849847939769618</v>
+        <v>0.99999718472571975</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3081,10 +3219,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.00088620207398204531</v>
+        <v>0.0004482563106915638</v>
       </c>
       <c r="C151">
-        <v>0.99911379792601795</v>
+        <v>0.99955174368930844</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -3095,10 +3233,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.00016604322290059148</v>
+        <v>0.0010303334568868561</v>
       </c>
       <c r="C152">
-        <v>0.99983395677709941</v>
+        <v>0.99896966654311314</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -3109,10 +3247,10 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>6.8290682989635698e-05</v>
+        <v>0.0001624439577657677</v>
       </c>
       <c r="C153">
-        <v>0.99993170931701036</v>
+        <v>0.99983755604223423</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -3123,10 +3261,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.99996334271492671</v>
+        <v>0.99997101663163113</v>
       </c>
       <c r="C154">
-        <v>3.66572850732514e-05</v>
+        <v>2.8983368368876022e-05</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -3137,10 +3275,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7.8613192751042504e-06</v>
+        <v>6.7810306891402661e-05</v>
       </c>
       <c r="C155">
-        <v>0.9999921386807249</v>
+        <v>0.9999321896931086</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -3151,10 +3289,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.99993583968517497</v>
+        <v>0.9991648217141762</v>
       </c>
       <c r="C156">
-        <v>6.4160314825058542e-05</v>
+        <v>0.00083517828582378164</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -3165,13 +3303,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.00020013547720520997</v>
+        <v>0.99981144456424309</v>
       </c>
       <c r="C157">
-        <v>0.99979986452279479</v>
+        <v>0.00018855543575689273</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3179,13 +3317,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>3.0009110927875504e-05</v>
+        <v>0.64329932372712562</v>
       </c>
       <c r="C158">
-        <v>0.99996999088907212</v>
+        <v>0.35670067627287438</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3193,13 +3331,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.0002052529089148214</v>
+        <v>0.9996738682547015</v>
       </c>
       <c r="C159">
-        <v>0.99979474709108518</v>
+        <v>0.00032613174529844591</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3207,13 +3345,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.00017092088238368497</v>
+        <v>0.99960692005746277</v>
       </c>
       <c r="C160">
-        <v>0.99982907911761632</v>
+        <v>0.00039307994253722205</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3221,13 +3359,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.00013985660860649229</v>
+        <v>0.99986152892886604</v>
       </c>
       <c r="C161">
-        <v>0.99986014339139351</v>
+        <v>0.00013847107113399107</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3235,10 +3373,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.99959963148192787</v>
+        <v>0.99867638629680733</v>
       </c>
       <c r="C162">
-        <v>0.00040036851807209121</v>
+        <v>0.0013236137031927104</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3249,10 +3387,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.99987335763058882</v>
+        <v>0.99980430710312418</v>
       </c>
       <c r="C163">
-        <v>0.00012664236941118442</v>
+        <v>0.00019569289687586854</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -3263,10 +3401,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.99876999712537751</v>
+        <v>0.99899834008035493</v>
       </c>
       <c r="C164">
-        <v>0.0012300028746224704</v>
+        <v>0.0010016599196450919</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3277,13 +3415,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.99996716014613829</v>
+        <v>7.7574296113325225e-05</v>
       </c>
       <c r="C165">
-        <v>3.2839853861753921e-05</v>
+        <v>0.99992242570388667</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3291,10 +3429,10 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.00018866474784118292</v>
+        <v>0.00013469116299269501</v>
       </c>
       <c r="C166">
-        <v>0.99981133525215882</v>
+        <v>0.9998653088370073</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -3305,13 +3443,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.99838519510982371</v>
+        <v>1.1330570710565979e-06</v>
       </c>
       <c r="C167">
-        <v>0.0016148048901763431</v>
+        <v>0.99999886694292894</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -3319,13 +3457,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.99991766219280009</v>
+        <v>0.00019916131366926049</v>
       </c>
       <c r="C168">
-        <v>8.2337807199862651e-05</v>
+        <v>0.99980083868633074</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -3333,10 +3471,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.99684637271805443</v>
+        <v>0.99989676046842002</v>
       </c>
       <c r="C169">
-        <v>0.0031536272819455433</v>
+        <v>0.00010323953157992731</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3347,13 +3485,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.99996152660029303</v>
+        <v>3.8816735365987398e-06</v>
       </c>
       <c r="C170">
-        <v>3.8473399706939783e-05</v>
+        <v>0.9999961183264634</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -3361,13 +3499,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.99980001629990689</v>
+        <v>1.1565537266777781e-05</v>
       </c>
       <c r="C171">
-        <v>0.00019998370009315192</v>
+        <v>0.99998843446273322</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -3375,10 +3513,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.99995237614004662</v>
+        <v>0.99986218781012226</v>
       </c>
       <c r="C172">
-        <v>4.7623859953399724e-05</v>
+        <v>0.00013781218987777769</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -3389,13 +3527,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.97749649377439707</v>
+        <v>0.00010103199552957687</v>
       </c>
       <c r="C173">
-        <v>0.022503506225602904</v>
+        <v>0.99989896800447042</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -3403,10 +3541,10 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.99980288269031115</v>
+        <v>0.99995649950081189</v>
       </c>
       <c r="C174">
-        <v>0.0001971173096888182</v>
+        <v>4.350049918816481e-05</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -3417,13 +3555,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.99997681711354891</v>
+        <v>0.0001293129785886471</v>
       </c>
       <c r="C175">
-        <v>2.3182886451054602e-05</v>
+        <v>0.99987068702141135</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -3431,13 +3569,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.99998487303102768</v>
+        <v>0.017882883615449985</v>
       </c>
       <c r="C176">
-        <v>1.512696897236147e-05</v>
+        <v>0.98211711638455002</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -3445,10 +3583,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.9986212852972659</v>
+        <v>0.99832160531060865</v>
       </c>
       <c r="C177">
-        <v>0.0013787147027340902</v>
+        <v>0.0016783946893913992</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -3459,13 +3597,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>4.5960498125108273e-06</v>
+        <v>0.9997515851801293</v>
       </c>
       <c r="C178">
-        <v>0.99999540395018749</v>
+        <v>0.00024841481987066124</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -3473,13 +3611,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>4.2235998356399129e-05</v>
+        <v>0.99956746753921955</v>
       </c>
       <c r="C179">
-        <v>0.9999577640016436</v>
+        <v>0.00043253246078042961</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -3487,13 +3625,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.00014942017344532488</v>
+        <v>0.99993486450887048</v>
       </c>
       <c r="C180">
-        <v>0.99985057982655468</v>
+        <v>6.5135491129468466e-05</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -3501,13 +3639,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>9.5577204728414245e-06</v>
+        <v>0.99985150152060231</v>
       </c>
       <c r="C181">
-        <v>0.99999044227952716</v>
+        <v>0.00014849847939769618</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -3515,10 +3653,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.052566647563103142</v>
+        <v>0.00088620207398204531</v>
       </c>
       <c r="C182">
-        <v>0.94743335243689686</v>
+        <v>0.99911379792601795</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -3529,10 +3667,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.00020043362077160065</v>
+        <v>0.00016604322290059148</v>
       </c>
       <c r="C183">
-        <v>0.9997995663792284</v>
+        <v>0.99983395677709941</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -3543,10 +3681,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1.2336708898663673e-05</v>
+        <v>6.8290682989635698e-05</v>
       </c>
       <c r="C184">
-        <v>0.99998766329110134</v>
+        <v>0.99993170931701036</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -3557,13 +3695,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1.9263188829610201e-06</v>
+        <v>0.99996334271492671</v>
       </c>
       <c r="C185">
-        <v>0.99999807368111704</v>
+        <v>3.66572850732514e-05</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -3571,10 +3709,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.2221750513852214e-05</v>
+        <v>7.8613192751042504e-06</v>
       </c>
       <c r="C186">
-        <v>0.99998777824948615</v>
+        <v>0.9999921386807249</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -3585,13 +3723,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>4.9272863291260904e-05</v>
+        <v>0.99993583968517497</v>
       </c>
       <c r="C187">
-        <v>0.99995072713670874</v>
+        <v>6.4160314825058542e-05</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -3599,10 +3737,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.0056386512419139834</v>
+        <v>4.3616058380546718e-06</v>
       </c>
       <c r="C188">
-        <v>0.99436134875808602</v>
+        <v>0.99999563839416195</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -3613,10 +3751,10 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>5.5862951273577537e-05</v>
+        <v>0.00020013547720520997</v>
       </c>
       <c r="C189">
-        <v>0.99994413704872642</v>
+        <v>0.99979986452279479</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -3627,13 +3765,13 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.99981144456424309</v>
+        <v>3.0009110927875504e-05</v>
       </c>
       <c r="C190">
-        <v>0.00018855543575689273</v>
+        <v>0.99996999088907212</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -3641,13 +3779,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.99995079501891959</v>
+        <v>0.0002052529089148214</v>
       </c>
       <c r="C191">
-        <v>4.9204981080372024e-05</v>
+        <v>0.99979474709108518</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -3655,10 +3793,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>4.8590809754944786e-05</v>
+        <v>0.00017092088238368497</v>
       </c>
       <c r="C192">
-        <v>0.99995140919024506</v>
+        <v>0.99982907911761632</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -3669,13 +3807,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.99981070762205992</v>
+        <v>8.2466556688975956e-06</v>
       </c>
       <c r="C193">
-        <v>0.00018929237794006998</v>
+        <v>0.9999917533443311</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -3683,13 +3821,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.99998537954608169</v>
+        <v>0.00013985660860649229</v>
       </c>
       <c r="C194">
-        <v>1.4620453918295977e-05</v>
+        <v>0.99986014339139351</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3697,10 +3835,10 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.99982849733119417</v>
+        <v>0.99959963148192787</v>
       </c>
       <c r="C195">
-        <v>0.00017150266880582772</v>
+        <v>0.00040036851807209121</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3711,10 +3849,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.99980972902990128</v>
+        <v>0.99987335763058882</v>
       </c>
       <c r="C196">
-        <v>0.00019027097009875204</v>
+        <v>0.00012664236941118442</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3725,10 +3863,10 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.99999700780059264</v>
+        <v>0.99876999712537751</v>
       </c>
       <c r="C197">
-        <v>2.9921994073512904e-06</v>
+        <v>0.0012300028746224704</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -3739,13 +3877,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.0015303363530847e-05</v>
+        <v>0.99996716014613829</v>
       </c>
       <c r="C198">
-        <v>0.99998998469663647</v>
+        <v>3.2839853861753921e-05</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -3753,13 +3891,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.99993298154640986</v>
+        <v>0.00018866474784118292</v>
       </c>
       <c r="C199">
-        <v>6.7018453590182546e-05</v>
+        <v>0.99981133525215882</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -3767,10 +3905,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.99995142211314447</v>
+        <v>0.99838519510982371</v>
       </c>
       <c r="C200">
-        <v>4.8577886855527383e-05</v>
+        <v>0.0016148048901763431</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -3781,13 +3919,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5.8727035312289289e-05</v>
+        <v>0.99991766219280009</v>
       </c>
       <c r="C201">
-        <v>0.99994127296468771</v>
+        <v>8.2337807199862651e-05</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3795,10 +3933,10 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.99655971832724122</v>
+        <v>0.99684637271805443</v>
       </c>
       <c r="C202">
-        <v>0.0034402816727587965</v>
+        <v>0.0031536272819455433</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -3809,13 +3947,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>6.6621689632784253e-06</v>
+        <v>0.99996152660029303</v>
       </c>
       <c r="C203">
-        <v>0.99999333783103672</v>
+        <v>3.8473399706939783e-05</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -3823,13 +3961,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>2.8973800379694659e-05</v>
+        <v>0.99980001629990689</v>
       </c>
       <c r="C204">
-        <v>0.99997102619962031</v>
+        <v>0.00019998370009315192</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -3837,10 +3975,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.99897765627170676</v>
+        <v>0.99995237614004662</v>
       </c>
       <c r="C205">
-        <v>0.0010223437282932762</v>
+        <v>4.7623859953399724e-05</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -3851,10 +3989,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.9997659860560375</v>
+        <v>0.97749649377439707</v>
       </c>
       <c r="C206">
-        <v>0.00023401394396246718</v>
+        <v>0.022503506225602904</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -3865,10 +4003,10 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.99953859935815748</v>
+        <v>0.99980288269031115</v>
       </c>
       <c r="C207">
-        <v>0.00046140064184254878</v>
+        <v>0.0001971173096888182</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -3879,13 +4017,13 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.6135203442235735e-06</v>
+        <v>0.99997681711354891</v>
       </c>
       <c r="C208">
-        <v>0.99999838647965578</v>
+        <v>2.3182886451054602e-05</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -3893,10 +4031,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.99947325466994441</v>
+        <v>0.99998487303102768</v>
       </c>
       <c r="C209">
-        <v>0.00052674533005559279</v>
+        <v>1.512696897236147e-05</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -3907,13 +4045,13 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>5.1513821967552609e-05</v>
+        <v>0.9986212852972659</v>
       </c>
       <c r="C210">
-        <v>0.99994848617803245</v>
+        <v>0.0013787147027340902</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -3921,13 +4059,13 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.99946580491864079</v>
+        <v>4.5960498125108273e-06</v>
       </c>
       <c r="C211">
-        <v>0.0005341950813592646</v>
+        <v>0.99999540395018749</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -3935,10 +4073,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.00017807536849012706</v>
+        <v>4.2235998356399129e-05</v>
       </c>
       <c r="C212">
-        <v>0.99982192463150987</v>
+        <v>0.9999577640016436</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -3949,13 +4087,13 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.99895388967061505</v>
+        <v>0.00014942017344532488</v>
       </c>
       <c r="C213">
-        <v>0.001046110329384943</v>
+        <v>0.99985057982655468</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -3963,13 +4101,13 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.67213717824489838</v>
+        <v>9.5577204728414245e-06</v>
       </c>
       <c r="C214">
-        <v>0.32786282175510167</v>
+        <v>0.99999044227952716</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -3977,13 +4115,13 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.99997698945325253</v>
+        <v>0.052566647563103142</v>
       </c>
       <c r="C215">
-        <v>2.3010546747415152e-05</v>
+        <v>0.94743335243689686</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -3991,10 +4129,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>6.2703220881643595e-05</v>
+        <v>0.00052382854056831629</v>
       </c>
       <c r="C216">
-        <v>0.99993729677911836</v>
+        <v>0.99947617145943168</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -4005,13 +4143,13 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.99983745121308676</v>
+        <v>0.00020043362077160065</v>
       </c>
       <c r="C217">
-        <v>0.00016254878691321557</v>
+        <v>0.9997995663792284</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -4019,13 +4157,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.9999771597292928</v>
+        <v>0.00089769349175372604</v>
       </c>
       <c r="C218">
-        <v>2.2840270707158399e-05</v>
+        <v>0.99910230650824627</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -4033,13 +4171,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.99973793794323218</v>
+        <v>1.2336708898663673e-05</v>
       </c>
       <c r="C219">
-        <v>0.00026206205676776814</v>
+        <v>0.99998766329110134</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -4047,13 +4185,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.99950278079374666</v>
+        <v>0.002142727026650304</v>
       </c>
       <c r="C220">
-        <v>0.00049721920625331458</v>
+        <v>0.9978572729733497</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -4061,10 +4199,10 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.00012615081244005122</v>
+        <v>1.9263188829610201e-06</v>
       </c>
       <c r="C221">
-        <v>0.99987384918755995</v>
+        <v>0.99999807368111704</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -4075,10 +4213,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>2.6946443818842702e-05</v>
+        <v>0.0015373758726703324</v>
       </c>
       <c r="C222">
-        <v>0.99997305355618116</v>
+        <v>0.99846262412732967</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -4089,13 +4227,13 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.99992168752978072</v>
+        <v>1.2221750513852214e-05</v>
       </c>
       <c r="C223">
-        <v>7.8312470219266849e-05</v>
+        <v>0.99998777824948615</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -4103,13 +4241,13 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.99999895370366942</v>
+        <v>4.9272863291260904e-05</v>
       </c>
       <c r="C224">
-        <v>1.0462963305375037e-06</v>
+        <v>0.99995072713670874</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -4117,13 +4255,13 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.9997241804718966</v>
+        <v>0.0056386512419139834</v>
       </c>
       <c r="C225">
-        <v>0.00027581952810338156</v>
+        <v>0.99436134875808602</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -4131,13 +4269,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.99978721592589592</v>
+        <v>5.5862951273577537e-05</v>
       </c>
       <c r="C226">
-        <v>0.0002127840741040606</v>
+        <v>0.99994413704872642</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -4145,10 +4283,10 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.99991087858880778</v>
+        <v>0.99981144456424309</v>
       </c>
       <c r="C227">
-        <v>8.9121411192163871e-05</v>
+        <v>0.00018855543575689273</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -4159,10 +4297,10 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.99984816242129315</v>
+        <v>0.99995079501891959</v>
       </c>
       <c r="C228">
-        <v>0.00015183757870680529</v>
+        <v>4.9204981080372024e-05</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4173,13 +4311,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.99992142309873633</v>
+        <v>4.8590809754944786e-05</v>
       </c>
       <c r="C229">
-        <v>7.8576901263670466e-05</v>
+        <v>0.99995140919024506</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -4187,10 +4325,10 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.99989476936160315</v>
+        <v>0.99981070762205992</v>
       </c>
       <c r="C230">
-        <v>0.00010523063839679827</v>
+        <v>0.00018929237794006998</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -4201,10 +4339,10 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.99999317530279963</v>
+        <v>0.99998537954608169</v>
       </c>
       <c r="C231">
-        <v>6.8246972003193154e-06</v>
+        <v>1.4620453918295977e-05</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -4215,10 +4353,10 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.99989144219454995</v>
+        <v>0.99982849733119417</v>
       </c>
       <c r="C232">
-        <v>0.0001085578054500465</v>
+        <v>0.00017150266880582772</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -4229,10 +4367,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.99997870669232036</v>
+        <v>0.99980972902990128</v>
       </c>
       <c r="C233">
-        <v>2.1293307679628609e-05</v>
+        <v>0.00019027097009875204</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -4243,10 +4381,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.99990982770606007</v>
+        <v>0.99999700780059264</v>
       </c>
       <c r="C234">
-        <v>9.0172293939906435e-05</v>
+        <v>2.9921994073512904e-06</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -4257,13 +4395,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.99970015177307714</v>
+        <v>1.0015303363530847e-05</v>
       </c>
       <c r="C235">
-        <v>0.00029984822692283016</v>
+        <v>0.99998998469663647</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -4271,10 +4409,10 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.99976092903127611</v>
+        <v>0.99993298154640986</v>
       </c>
       <c r="C236">
-        <v>0.00023907096872391277</v>
+        <v>6.7018453590182546e-05</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -4285,13 +4423,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1.1141488555077572e-06</v>
+        <v>0.99995142211314447</v>
       </c>
       <c r="C237">
-        <v>0.99999888585114449</v>
+        <v>4.8577886855527383e-05</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -4299,13 +4437,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.98876098004864588</v>
+        <v>5.8727035312289289e-05</v>
       </c>
       <c r="C238">
-        <v>0.011239019951354151</v>
+        <v>0.99994127296468771</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -4313,13 +4451,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.00018904821577769848</v>
+        <v>0.99655971832724122</v>
       </c>
       <c r="C239">
-        <v>0.9998109517842223</v>
+        <v>0.0034402816727587965</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -4327,13 +4465,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.99980156230157224</v>
+        <v>6.6621689632784253e-06</v>
       </c>
       <c r="C240">
-        <v>0.00019843769842772148</v>
+        <v>0.99999333783103672</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -4341,13 +4479,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.99996248178429337</v>
+        <v>2.8973800379694659e-05</v>
       </c>
       <c r="C241">
-        <v>3.75182157066554e-05</v>
+        <v>0.99997102619962031</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -4355,10 +4493,10 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.99997420310454432</v>
+        <v>0.99897765627170676</v>
       </c>
       <c r="C242">
-        <v>2.5796895455694344e-05</v>
+        <v>0.0010223437282932762</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -4369,13 +4507,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>8.7471567156605104e-05</v>
+        <v>0.9997659860560375</v>
       </c>
       <c r="C243">
-        <v>0.99991252843284339</v>
+        <v>0.00023401394396246718</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -4383,13 +4521,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2.1328590084079835e-06</v>
+        <v>0.99953859935815748</v>
       </c>
       <c r="C244">
-        <v>0.99999786714099159</v>
+        <v>0.00046140064184254878</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -4397,13 +4535,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.9995615985499029</v>
+        <v>1.6135203442235735e-06</v>
       </c>
       <c r="C245">
-        <v>0.00043840145009715382</v>
+        <v>0.99999838647965578</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -4411,13 +4549,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.00062615586802405865</v>
+        <v>0.99947325466994441</v>
       </c>
       <c r="C246">
-        <v>0.99937384413197594</v>
+        <v>0.00052674533005559279</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -4425,10 +4563,10 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.00028168160463071246</v>
+        <v>5.1513821967552609e-05</v>
       </c>
       <c r="C247">
-        <v>0.99971831839536929</v>
+        <v>0.99994848617803245</v>
       </c>
       <c r="D247">
         <v>2</v>
@@ -4439,13 +4577,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.00035354402199538898</v>
+        <v>0.99946580491864079</v>
       </c>
       <c r="C248">
-        <v>0.99964645597800461</v>
+        <v>0.0005341950813592646</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -4453,13 +4591,13 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.99992340094010956</v>
+        <v>0.00017807536849012706</v>
       </c>
       <c r="C249">
-        <v>7.6599059890401127e-05</v>
+        <v>0.99982192463150987</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -4467,10 +4605,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.99966278821922328</v>
+        <v>0.99895388967061505</v>
       </c>
       <c r="C250">
-        <v>0.00033721178077673425</v>
+        <v>0.001046110329384943</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -4481,10 +4619,10 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.99939087065616705</v>
+        <v>0.67213717824489838</v>
       </c>
       <c r="C251">
-        <v>0.00060912934383293741</v>
+        <v>0.32786282175510167</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -4495,10 +4633,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.99828192763049384</v>
+        <v>0.99997698945325253</v>
       </c>
       <c r="C252">
-        <v>0.001718072369506165</v>
+        <v>2.3010546747415152e-05</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -4509,13 +4647,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.99952396192104154</v>
+        <v>6.2703220881643595e-05</v>
       </c>
       <c r="C253">
-        <v>0.00047603807895840923</v>
+        <v>0.99993729677911836</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -4523,10 +4661,10 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.99946615199255107</v>
+        <v>0.99983745121308676</v>
       </c>
       <c r="C254">
-        <v>0.00053384800744893325</v>
+        <v>0.00016254878691321557</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -4537,10 +4675,10 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.99635959116357242</v>
+        <v>0.9999771597292928</v>
       </c>
       <c r="C255">
-        <v>0.0036404088364275816</v>
+        <v>2.2840270707158399e-05</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -4551,13 +4689,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.99858890283502666</v>
+        <v>2.0020591336988858e-06</v>
       </c>
       <c r="C256">
-        <v>0.0014110971649733308</v>
+        <v>0.9999979979408663</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -4565,10 +4703,10 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.99956852335988822</v>
+        <v>0.99973793794323218</v>
       </c>
       <c r="C257">
-        <v>0.0004314766401117792</v>
+        <v>0.00026206205676776814</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -4579,10 +4717,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.999997724147491</v>
+        <v>0.99950278079374666</v>
       </c>
       <c r="C258">
-        <v>2.2758525090541086e-06</v>
+        <v>0.00049721920625331458</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -4593,13 +4731,13 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.99979924612830251</v>
+        <v>0.00012615081244005122</v>
       </c>
       <c r="C259">
-        <v>0.0002007538716975173</v>
+        <v>0.99987384918755995</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -4607,10 +4745,10 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>9.2691121944543653e-07</v>
+        <v>2.6946443818842702e-05</v>
       </c>
       <c r="C260">
-        <v>0.99999907308878055</v>
+        <v>0.99997305355618116</v>
       </c>
       <c r="D260">
         <v>2</v>
@@ -4621,10 +4759,10 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0.99981314839539082</v>
+        <v>0.99992168752978072</v>
       </c>
       <c r="C261">
-        <v>0.0001868516046092183</v>
+        <v>7.8312470219266849e-05</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -4635,10 +4773,10 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.99998759614388966</v>
+        <v>0.99999895370366942</v>
       </c>
       <c r="C262">
-        <v>1.2403856110344974e-05</v>
+        <v>1.0462963305375037e-06</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -4649,13 +4787,13 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.00055804647536206176</v>
+        <v>0.9997241804718966</v>
       </c>
       <c r="C263">
-        <v>0.99944195352463794</v>
+        <v>0.00027581952810338156</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -4663,10 +4801,10 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.99861933903242361</v>
+        <v>0.99978721592589592</v>
       </c>
       <c r="C264">
-        <v>0.0013806609675764223</v>
+        <v>0.0002127840741040606</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -4677,13 +4815,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>9.9527306476332456e-06</v>
+        <v>0.99991087858880778</v>
       </c>
       <c r="C265">
-        <v>0.99999004726935237</v>
+        <v>8.9121411192163871e-05</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -4691,13 +4829,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>4.6085385435934434e-05</v>
+        <v>0.99984816242129315</v>
       </c>
       <c r="C266">
-        <v>0.99995391461456407</v>
+        <v>0.00015183757870680529</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -4705,13 +4843,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.017964906288462257</v>
+        <v>0.99992142309873633</v>
       </c>
       <c r="C267">
-        <v>0.98203509371153774</v>
+        <v>7.8576901263670466e-05</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -4719,13 +4857,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>2.1658200077712131e-05</v>
+        <v>0.99989476936160315</v>
       </c>
       <c r="C268">
-        <v>0.99997834179992229</v>
+        <v>0.00010523063839679827</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -4733,13 +4871,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>4.9297714281859584e-06</v>
+        <v>0.99999317530279963</v>
       </c>
       <c r="C269">
-        <v>0.99999507022857181</v>
+        <v>6.8246972003193154e-06</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -4747,13 +4885,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>6.6556188163424679e-05</v>
+        <v>0.99989144219454995</v>
       </c>
       <c r="C270">
-        <v>0.99993344381183658</v>
+        <v>0.0001085578054500465</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -4761,10 +4899,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.99489149519939757</v>
+        <v>0.99997870669232036</v>
       </c>
       <c r="C271">
-        <v>0.0051085048006024618</v>
+        <v>2.1293307679628609e-05</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -4775,13 +4913,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>6.8072559341603167e-06</v>
+        <v>0.99990982770606007</v>
       </c>
       <c r="C272">
-        <v>0.99999319274406584</v>
+        <v>9.0172293939906435e-05</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -4789,10 +4927,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.98537743727520444</v>
+        <v>0.99970015177307714</v>
       </c>
       <c r="C273">
-        <v>0.014622562724795526</v>
+        <v>0.00029984822692283016</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4803,10 +4941,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.99934435262627686</v>
+        <v>0.99976092903127611</v>
       </c>
       <c r="C274">
-        <v>0.00065564737372315982</v>
+        <v>0.00023907096872391277</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -4817,13 +4955,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.9999527473319153</v>
+        <v>1.1141488555077572e-06</v>
       </c>
       <c r="C275">
-        <v>4.7252668084653023e-05</v>
+        <v>0.99999888585114449</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -4831,10 +4969,10 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.99950647550244298</v>
+        <v>0.98876098004864588</v>
       </c>
       <c r="C276">
-        <v>0.00049352449755705682</v>
+        <v>0.011239019951354151</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -4845,13 +4983,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.99985127367435156</v>
+        <v>0.00018904821577769848</v>
       </c>
       <c r="C277">
-        <v>0.00014872632564840802</v>
+        <v>0.9998109517842223</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -4859,10 +4997,10 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.99340555046739332</v>
+        <v>0.99980156230157224</v>
       </c>
       <c r="C278">
-        <v>0.0065944495326066555</v>
+        <v>0.00019843769842772148</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -4873,10 +5011,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.99995803697153984</v>
+        <v>0.99996248178429337</v>
       </c>
       <c r="C279">
-        <v>4.1963028460201933e-05</v>
+        <v>3.75182157066554e-05</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -4887,10 +5025,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.99987752460551893</v>
+        <v>0.99997420310454432</v>
       </c>
       <c r="C280">
-        <v>0.0001224753944810234</v>
+        <v>2.5796895455694344e-05</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -4901,13 +5039,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.99949051684181056</v>
+        <v>8.7471567156605104e-05</v>
       </c>
       <c r="C281">
-        <v>0.00050948315818940854</v>
+        <v>0.99991252843284339</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -4915,10 +5053,10 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>1.8648920120378776e-06</v>
+        <v>2.1328590084079835e-06</v>
       </c>
       <c r="C282">
-        <v>0.99999813510798796</v>
+        <v>0.99999786714099159</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -4929,10 +5067,10 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.99988937780153142</v>
+        <v>0.9995615985499029</v>
       </c>
       <c r="C283">
-        <v>0.00011062219846856255</v>
+        <v>0.00043840145009715382</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -4943,13 +5081,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.9934957504386126</v>
+        <v>0.00062615586802405865</v>
       </c>
       <c r="C284">
-        <v>0.0065042495613874393</v>
+        <v>0.99937384413197594</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -4957,13 +5095,13 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.99978992016070722</v>
+        <v>0.00028168160463071246</v>
       </c>
       <c r="C285">
-        <v>0.00021007983929281131</v>
+        <v>0.99971831839536929</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -4971,13 +5109,13 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.99999247811792846</v>
+        <v>0.00035354402199538898</v>
       </c>
       <c r="C286">
-        <v>7.5218820714886963e-06</v>
+        <v>0.99964645597800461</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -4985,10 +5123,10 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.99965232148659933</v>
+        <v>0.99992340094010956</v>
       </c>
       <c r="C287">
-        <v>0.00034767851340071162</v>
+        <v>7.6599059890401127e-05</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -4999,10 +5137,10 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.99966277860938291</v>
+        <v>0.99966278821922328</v>
       </c>
       <c r="C288">
-        <v>0.00033722139061706605</v>
+        <v>0.00033721178077673425</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -5013,10 +5151,10 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.99981479500881643</v>
+        <v>0.99939087065616705</v>
       </c>
       <c r="C289">
-        <v>0.00018520499118352511</v>
+        <v>0.00060912934383293741</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -5027,10 +5165,10 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.99996552268493999</v>
+        <v>0.99828192763049384</v>
       </c>
       <c r="C290">
-        <v>3.4477315060050418e-05</v>
+        <v>0.001718072369506165</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -5041,13 +5179,13 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.00019477041415627561</v>
+        <v>0.99952396192104154</v>
       </c>
       <c r="C291">
-        <v>0.99980522958584372</v>
+        <v>0.00047603807895840923</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -5055,13 +5193,13 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>6.9426913581693839e-05</v>
+        <v>0.99946615199255107</v>
       </c>
       <c r="C292">
-        <v>0.99993057308641831</v>
+        <v>0.00053384800744893325</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -5069,13 +5207,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>4.8861399134847439e-05</v>
+        <v>0.99635959116357242</v>
       </c>
       <c r="C293">
-        <v>0.99995113860086515</v>
+        <v>0.0036404088364275816</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -5083,13 +5221,13 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>6.8953724235099045e-05</v>
+        <v>0.99858890283502666</v>
       </c>
       <c r="C294">
-        <v>0.9999310462757649</v>
+        <v>0.0014110971649733308</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -5097,13 +5235,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.00019472966746902906</v>
+        <v>0.99956852335988822</v>
       </c>
       <c r="C295">
-        <v>0.99980527033253097</v>
+        <v>0.0004314766401117792</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -5111,13 +5249,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>1.7149148685779991e-05</v>
+        <v>0.999997724147491</v>
       </c>
       <c r="C296">
-        <v>0.99998285085131422</v>
+        <v>2.2758525090541086e-06</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -5125,13 +5263,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>4.1006586953717949e-05</v>
+        <v>0.99979924612830251</v>
       </c>
       <c r="C297">
-        <v>0.99995899341304628</v>
+        <v>0.0002007538716975173</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -5139,10 +5277,10 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.48390051258245559</v>
+        <v>9.2691121944543653e-07</v>
       </c>
       <c r="C298">
-        <v>0.51609948741754441</v>
+        <v>0.99999907308878055</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -5153,12 +5291,656 @@
         <v>298</v>
       </c>
       <c r="B299">
+        <v>0.99981314839539082</v>
+      </c>
+      <c r="C299">
+        <v>0.0001868516046092183</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>0.99998759614388966</v>
+      </c>
+      <c r="C300">
+        <v>1.2403856110344974e-05</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>0.00055804647536206176</v>
+      </c>
+      <c r="C301">
+        <v>0.99944195352463794</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>0.99861933903242361</v>
+      </c>
+      <c r="C302">
+        <v>0.0013806609675764223</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>0.0006465070494086067</v>
+      </c>
+      <c r="C303">
+        <v>0.99935349295059139</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>9.9527306476332456e-06</v>
+      </c>
+      <c r="C304">
+        <v>0.99999004726935237</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>4.6085385435934434e-05</v>
+      </c>
+      <c r="C305">
+        <v>0.99995391461456407</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>0.00017369343404827209</v>
+      </c>
+      <c r="C306">
+        <v>0.99982630656595173</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>8.8381359635847367e-05</v>
+      </c>
+      <c r="C307">
+        <v>0.99991161864036415</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>0.015792398885617565</v>
+      </c>
+      <c r="C308">
+        <v>0.98420760111438244</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>0.017964906288462257</v>
+      </c>
+      <c r="C309">
+        <v>0.98203509371153774</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>2.1658200077712131e-05</v>
+      </c>
+      <c r="C310">
+        <v>0.99997834179992229</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>0.0013638737581169735</v>
+      </c>
+      <c r="C311">
+        <v>0.99863612624188303</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>4.9297714281859584e-06</v>
+      </c>
+      <c r="C312">
+        <v>0.99999507022857181</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>0.00083385290762105768</v>
+      </c>
+      <c r="C313">
+        <v>0.99916614709237894</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>6.6556188163424679e-05</v>
+      </c>
+      <c r="C314">
+        <v>0.99993344381183658</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>0.99489149519939757</v>
+      </c>
+      <c r="C315">
+        <v>0.0051085048006024618</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>6.8072559341603167e-06</v>
+      </c>
+      <c r="C316">
+        <v>0.99999319274406584</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>0.98537743727520444</v>
+      </c>
+      <c r="C317">
+        <v>0.014622562724795526</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>0.99934435262627686</v>
+      </c>
+      <c r="C318">
+        <v>0.00065564737372315982</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>0.9999527473319153</v>
+      </c>
+      <c r="C319">
+        <v>4.7252668084653023e-05</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>0.99950647550244298</v>
+      </c>
+      <c r="C320">
+        <v>0.00049352449755705682</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>0.99985127367435156</v>
+      </c>
+      <c r="C321">
+        <v>0.00014872632564840802</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>0.99340555046739332</v>
+      </c>
+      <c r="C322">
+        <v>0.0065944495326066555</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>0.99995803697153984</v>
+      </c>
+      <c r="C323">
+        <v>4.1963028460201933e-05</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>0.99987752460551893</v>
+      </c>
+      <c r="C324">
+        <v>0.0001224753944810234</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>0.99949051684181056</v>
+      </c>
+      <c r="C325">
+        <v>0.00050948315818940854</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>1.8648920120378776e-06</v>
+      </c>
+      <c r="C326">
+        <v>0.99999813510798796</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>0.99988937780153142</v>
+      </c>
+      <c r="C327">
+        <v>0.00011062219846856255</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>0.9934957504386126</v>
+      </c>
+      <c r="C328">
+        <v>0.0065042495613874393</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>0.99978992016070722</v>
+      </c>
+      <c r="C329">
+        <v>0.00021007983929281131</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>0.99999247811792846</v>
+      </c>
+      <c r="C330">
+        <v>7.5218820714886963e-06</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>0.99965232148659933</v>
+      </c>
+      <c r="C331">
+        <v>0.00034767851340071162</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>0.99966277860938291</v>
+      </c>
+      <c r="C332">
+        <v>0.00033722139061706605</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>0.99981479500881643</v>
+      </c>
+      <c r="C333">
+        <v>0.00018520499118352511</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>0.99996552268493999</v>
+      </c>
+      <c r="C334">
+        <v>3.4477315060050418e-05</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>0.00019477041415627561</v>
+      </c>
+      <c r="C335">
+        <v>0.99980522958584372</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>6.9426913581693839e-05</v>
+      </c>
+      <c r="C336">
+        <v>0.99993057308641831</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>4.8861399134847439e-05</v>
+      </c>
+      <c r="C337">
+        <v>0.99995113860086515</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>6.8953724235099045e-05</v>
+      </c>
+      <c r="C338">
+        <v>0.9999310462757649</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>0.00019472966746902906</v>
+      </c>
+      <c r="C339">
+        <v>0.99980527033253097</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>1.6125629537122599e-05</v>
+      </c>
+      <c r="C340">
+        <v>0.99998387437046288</v>
+      </c>
+      <c r="D340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>1.1031461966903857e-05</v>
+      </c>
+      <c r="C341">
+        <v>0.9999889685380331</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>1.7149148685779991e-05</v>
+      </c>
+      <c r="C342">
+        <v>0.99998285085131422</v>
+      </c>
+      <c r="D342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>4.1006586953717949e-05</v>
+      </c>
+      <c r="C343">
+        <v>0.99995899341304628</v>
+      </c>
+      <c r="D343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>0.48390051258245559</v>
+      </c>
+      <c r="C344">
+        <v>0.51609948741754441</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345">
         <v>0.135064536357416</v>
       </c>
-      <c r="C299">
+      <c r="C345">
         <v>0.864935463642584</v>
       </c>
-      <c r="D299">
+      <c r="D345">
         <v>2</v>
       </c>
     </row>
